--- a/Client/Dev/PandaVillage/Assets/Tables/seed_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/seed_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\서울IT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>푸른 재즈 씨앗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +452,42 @@
   </si>
   <si>
     <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 4일 소요됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 심으면 12일 후 큰 콜리플라워를 생산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 6일 소요됩니다. 낫으로 수확할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈 씨앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 심으세요. 6일 후 다채로운 꽃이 핍니다. 여러가지 색이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 심으세요. 7일 후 푸른 민들레 꽃이 핍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 10일 소요되지만, 수확한 후에도 계속 작물이 생산됩니다. 격자 구조물에 감겨 자랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물. 성장하려면 6일 소요되며, 한번 수확할 때 여러 개 수확할 확률이 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +539,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -522,12 +570,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -536,20 +599,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,84 +898,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
@@ -920,7 +994,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
@@ -928,17 +1002,20 @@
       <c r="F3" s="3">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>1000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -949,7 +1026,7 @@
         <v>2001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -957,28 +1034,31 @@
       <c r="F4" s="3">
         <v>120</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>2002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>60</v>
@@ -986,28 +1066,31 @@
       <c r="F5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>1000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>30</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1003</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>2003</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>70</v>
@@ -1015,28 +1098,31 @@
       <c r="F6" s="3">
         <v>105</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>35</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>1004</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>2004</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1044,28 +1130,31 @@
       <c r="F7" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>1000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>25</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>1005</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>2005</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>30</v>
@@ -1073,63 +1162,50 @@
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>1006</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>2006</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
